--- a/biology/Botanique/Iguanura/Iguanura.xlsx
+++ b/biology/Botanique/Iguanura/Iguanura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Iguanura est un genre de la famille des Arecaceae (Palmiers) comprenant des espèces natives de Thaïlande, Malaisie, Bornéo, et Sumatra.
 </t>
@@ -511,7 +523,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Sous-famille des Arecoideae
 Tribu des Areceae</t>
@@ -542,9 +556,11 @@
           <t>Liste des espèces et variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (30 décembre 2013)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (30 décembre 2013) :
 Iguanura ambigua Becc. (1886)
 Iguanura asli C.K.Lim (1996 publ. 1998)
 Iguanura belumensis C.K.Lim (1996 publ. 1998)
@@ -585,9 +601,9 @@
 variété Iguanura wallichiana var. major Becc. ex Hook.f. (1892)
 variété Iguanura wallichiana var. rosea C.K.Lim (1996 publ. 1998)
 variété Iguanura wallichiana var. wallichiana
-Selon NCBI  (30 décembre 2013)[3] :
+Selon NCBI  (30 décembre 2013) :
 Iguanura wallichiana
-Selon The Plant List            (30 décembre 2013)[4] :
+Selon The Plant List            (30 décembre 2013) :
 Iguanura ambigua Becc.
 Iguanura asli C.K.Lim
 Iguanura belumensis C.K.Lim
@@ -620,7 +636,7 @@
 Iguanura tenuis Hodel
 Iguanura thalangensis C.K.Lim
 Iguanura wallichiana (Mart.) Becc.
-Selon Tropicos                                           (30 décembre 2013)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (30 décembre 2013) (Attention liste brute contenant possiblement des synonymes) :
 Iguanura ambigua Becc.
 Iguanura arakudensis Furtado
 Iguanura asli C.K.Lim
